--- a/QB/Full/QB_Analysis.xlsx
+++ b/QB/Full/QB_Analysis.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>Final_Score</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -461,29 +461,29 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Y/A</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FPTS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FPTS/G</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CMP/game</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ATT/game</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>YDS/game</t>
@@ -496,17 +496,17 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>INT/game</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SACKS/game</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>ATT.1/game</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>YDS.1/game</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>TD.1/game</t>
         </is>
       </c>
     </row>
@@ -516,47 +516,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joe Flacco (IND)</t>
+          <t>Josh Allen (BUF)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>129.4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60.3</v>
+        <v>66.5</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="G2" t="n">
-        <v>108.9</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>21.8</v>
+        <v>410.9</v>
       </c>
       <c r="I2" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>22.6</v>
       </c>
       <c r="K2" t="n">
-        <v>323.2</v>
+        <v>253.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>118.6</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>22</v>
@@ -578,19 +578,19 @@
         <v>69.5</v>
       </c>
       <c r="F3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G3" t="n">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>154.9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>19.4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>27</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38.9</v>
       </c>
       <c r="K3" t="n">
         <v>291.4</v>
@@ -599,13 +599,13 @@
         <v>2.2</v>
       </c>
       <c r="M3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -614,47 +614,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C.J. Stroud (HOU)</t>
+          <t>Dak Prescott (DAL)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>109.3</v>
+        <v>9.41</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.9</v>
+        <v>69.5</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>7.7</v>
       </c>
       <c r="G4" t="n">
-        <v>281.1</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>18.7</v>
+        <v>352</v>
       </c>
       <c r="I4" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="J4" t="n">
-        <v>33.3</v>
+        <v>24.1</v>
       </c>
       <c r="K4" t="n">
-        <v>273.9</v>
+        <v>265.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="M4" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="N4" t="n">
-        <v>11.1</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -663,47 +663,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jared Goff (DET)</t>
+          <t>Jalen Hurts (PHI)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>109</v>
+        <v>9.25</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="n">
-        <v>67.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G5" t="n">
         <v>17</v>
       </c>
-      <c r="G5" t="n">
-        <v>302.9</v>
-      </c>
       <c r="H5" t="n">
-        <v>17.8</v>
+        <v>371.9</v>
       </c>
       <c r="I5" t="n">
-        <v>23.9</v>
+        <v>21.9</v>
       </c>
       <c r="J5" t="n">
-        <v>35.6</v>
+        <v>20.7</v>
       </c>
       <c r="K5" t="n">
-        <v>269.1</v>
+        <v>226.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="N5" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -712,47 +712,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tua Tagovailoa (MIA)</t>
+          <t>Lamar Jackson (BAL)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>108.6</v>
+        <v>9.23</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>69.3</v>
+        <v>67.2</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>284.4</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>16.7</v>
+        <v>338.2</v>
       </c>
       <c r="I6" t="n">
-        <v>22.8</v>
+        <v>21.1</v>
       </c>
       <c r="J6" t="n">
-        <v>32.9</v>
+        <v>19.2</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>229.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -761,47 +761,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dak Prescott (DAL)</t>
+          <t>Brock Purdy (SF)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>108.4</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="G7" t="n">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>20.7</v>
+        <v>306.6</v>
       </c>
       <c r="I7" t="n">
-        <v>24.1</v>
+        <v>19.2</v>
       </c>
       <c r="J7" t="n">
-        <v>34.7</v>
+        <v>19.2</v>
       </c>
       <c r="K7" t="n">
-        <v>265.6</v>
+        <v>267.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="M7" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="N7" t="n">
-        <v>14.2</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>107.4</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -823,19 +823,19 @@
         <v>67.2</v>
       </c>
       <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
         <v>16</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>294.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>18.4</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>25.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>37.3</v>
       </c>
       <c r="K8" t="n">
         <v>261.4</v>
@@ -844,13 +844,13 @@
         <v>1.7</v>
       </c>
       <c r="M8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O8" t="n">
         <v>4.7</v>
-      </c>
-      <c r="N8" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -859,47 +859,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Matthew Stafford (LAR)</t>
+          <t>Joe Flacco (IND)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>106.3</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>62.6</v>
+        <v>60.3</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>7.9</v>
       </c>
       <c r="G9" t="n">
-        <v>254.3</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>108.9</v>
       </c>
       <c r="I9" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="J9" t="n">
-        <v>34.7</v>
+        <v>24.6</v>
       </c>
       <c r="K9" t="n">
-        <v>264.3</v>
+        <v>323.2</v>
       </c>
       <c r="L9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.6</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.4</v>
-      </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
@@ -908,47 +908,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brock Purdy (SF)</t>
+          <t>Jared Goff (DET)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>105.2</v>
+        <v>8.83</v>
       </c>
       <c r="D10" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E10" t="n">
-        <v>69.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="G10" t="n">
-        <v>306.6</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>19.2</v>
+        <v>302.9</v>
       </c>
       <c r="I10" t="n">
-        <v>19.2</v>
+        <v>17.8</v>
       </c>
       <c r="J10" t="n">
-        <v>27.8</v>
+        <v>23.9</v>
       </c>
       <c r="K10" t="n">
-        <v>267.5</v>
+        <v>269.1</v>
       </c>
       <c r="L10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.1</v>
       </c>
     </row>
     <row r="11">
@@ -957,47 +957,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Josh Allen (BUF)</t>
+          <t>Tua Tagovailoa (MIA)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>104.3</v>
+        <v>8.67</v>
       </c>
       <c r="D11" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>66.5</v>
+        <v>69.3</v>
       </c>
       <c r="F11" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G11" t="n">
         <v>17</v>
       </c>
-      <c r="G11" t="n">
-        <v>410.9</v>
-      </c>
       <c r="H11" t="n">
-        <v>24.2</v>
+        <v>284.4</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6</v>
+        <v>16.7</v>
       </c>
       <c r="J11" t="n">
-        <v>34.1</v>
+        <v>22.8</v>
       </c>
       <c r="K11" t="n">
-        <v>253.3</v>
+        <v>272</v>
       </c>
       <c r="L11" t="n">
         <v>1.7</v>
       </c>
       <c r="M11" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="N11" t="n">
-        <v>30.8</v>
+        <v>1.7</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -1006,47 +1006,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nick Mullens (MIN)</t>
+          <t>Matthew Stafford (LAR)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>102.9</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>67.59999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="G12" t="n">
-        <v>74.59999999999999</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>14.9</v>
+        <v>254.3</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>29.6</v>
+        <v>21.7</v>
       </c>
       <c r="K12" t="n">
-        <v>261.2</v>
+        <v>264.3</v>
       </c>
       <c r="L12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1055,47 +1055,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Trevor Lawrence (JAC)</t>
+          <t>C.J. Stroud (HOU)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>102.5</v>
+        <v>8.4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>65.59999999999999</v>
+        <v>63.9</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>276.6</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>17.3</v>
+        <v>281.1</v>
       </c>
       <c r="I13" t="n">
-        <v>23.1</v>
+        <v>18.7</v>
       </c>
       <c r="J13" t="n">
-        <v>35.2</v>
+        <v>21.3</v>
       </c>
       <c r="K13" t="n">
-        <v>251</v>
+        <v>273.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="N13" t="n">
-        <v>21.2</v>
+        <v>2.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -1104,47 +1104,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jordan Love (GB)</t>
+          <t>Trevor Lawrence (JAC)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>100.4</v>
+        <v>8.4</v>
       </c>
       <c r="D14" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>64.2</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>7.1</v>
       </c>
       <c r="G14" t="n">
-        <v>330.1</v>
+        <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>19.4</v>
+        <v>276.6</v>
       </c>
       <c r="I14" t="n">
-        <v>21.9</v>
+        <v>17.3</v>
       </c>
       <c r="J14" t="n">
-        <v>34.1</v>
+        <v>23.1</v>
       </c>
       <c r="K14" t="n">
-        <v>244.6</v>
+        <v>251</v>
       </c>
       <c r="L14" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="N14" t="n">
-        <v>14.5</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="15">
@@ -1153,47 +1153,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Justin Herbert (LAC)</t>
+          <t>Justin Fields (PIT)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>99.5</v>
+        <v>8.25</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>65.09999999999999</v>
+        <v>61.4</v>
       </c>
       <c r="F15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G15" t="n">
         <v>13</v>
       </c>
-      <c r="G15" t="n">
-        <v>241.2</v>
-      </c>
       <c r="H15" t="n">
-        <v>18.6</v>
+        <v>239.1</v>
       </c>
       <c r="I15" t="n">
-        <v>22.8</v>
+        <v>18.4</v>
       </c>
       <c r="J15" t="n">
-        <v>35.1</v>
+        <v>17.5</v>
       </c>
       <c r="K15" t="n">
-        <v>241.1</v>
+        <v>197.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="N15" t="n">
-        <v>17.5</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="16">
@@ -1202,47 +1202,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Geno Smith (SEA)</t>
+          <t>Baker Mayfield (TB)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>98.09999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="E16" t="n">
-        <v>64.7</v>
+        <v>64.3</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>7.1</v>
       </c>
       <c r="G16" t="n">
-        <v>236.4</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>15.8</v>
+        <v>284</v>
       </c>
       <c r="I16" t="n">
-        <v>21.5</v>
+        <v>16.7</v>
       </c>
       <c r="J16" t="n">
-        <v>33.3</v>
+        <v>21.4</v>
       </c>
       <c r="K16" t="n">
-        <v>241.6</v>
+        <v>237.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="M16" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="N16" t="n">
-        <v>10.3</v>
+        <v>2.4</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="17">
@@ -1251,47 +1251,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Baker Mayfield (TB)</t>
+          <t>Jordan Love (GB)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>97.2</v>
+        <v>8.18</v>
       </c>
       <c r="D17" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="E17" t="n">
-        <v>64.3</v>
+        <v>64.2</v>
       </c>
       <c r="F17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>17</v>
       </c>
-      <c r="G17" t="n">
-        <v>284</v>
-      </c>
       <c r="H17" t="n">
-        <v>16.7</v>
+        <v>330.1</v>
       </c>
       <c r="I17" t="n">
-        <v>21.4</v>
+        <v>19.4</v>
       </c>
       <c r="J17" t="n">
-        <v>33.3</v>
+        <v>21.9</v>
       </c>
       <c r="K17" t="n">
-        <v>237.9</v>
+        <v>244.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="M17" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="N17" t="n">
-        <v>9.6</v>
+        <v>1.8</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
@@ -1300,47 +1300,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Joe Burrow (CIN)</t>
+          <t>Sam Howell (SEA)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>96.40000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="E18" t="n">
-        <v>66.8</v>
+        <v>63.4</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="G18" t="n">
-        <v>153.2</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>15.3</v>
+        <v>278.6</v>
       </c>
       <c r="I18" t="n">
-        <v>24.4</v>
+        <v>16.4</v>
       </c>
       <c r="J18" t="n">
-        <v>36.5</v>
+        <v>22.8</v>
       </c>
       <c r="K18" t="n">
-        <v>230.9</v>
+        <v>232.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="N18" t="n">
-        <v>8.800000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -1349,47 +1349,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sam Howell (SEA)</t>
+          <t>Nick Mullens (MIN)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>96.3</v>
+        <v>8.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-6</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>63.4</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>278.6</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>16.4</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>22.8</v>
+        <v>14.9</v>
       </c>
       <c r="J19" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K19" t="n">
-        <v>232.1</v>
+        <v>261.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="N19" t="n">
-        <v>15.5</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1398,47 +1398,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jalen Hurts (PHI)</t>
+          <t>Russell Wilson (PIT)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>93.90000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="E20" t="n">
-        <v>65.40000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>6.9</v>
       </c>
       <c r="G20" t="n">
-        <v>371.9</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9</v>
+        <v>264.9</v>
       </c>
       <c r="I20" t="n">
-        <v>20.7</v>
+        <v>17.7</v>
       </c>
       <c r="J20" t="n">
-        <v>31.6</v>
+        <v>19.8</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9</v>
+        <v>204.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M20" t="n">
-        <v>9.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="N20" t="n">
-        <v>35.6</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="21">
@@ -1447,47 +1447,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lamar Jackson (BAL)</t>
+          <t>Kyler Murray (ARI)</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>93.5</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>67.2</v>
+        <v>65.7</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>6.7</v>
       </c>
       <c r="G21" t="n">
-        <v>338.2</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>21.1</v>
+        <v>151.4</v>
       </c>
       <c r="I21" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="J21" t="n">
-        <v>28.6</v>
+        <v>22</v>
       </c>
       <c r="K21" t="n">
-        <v>229.9</v>
+        <v>224.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="N21" t="n">
-        <v>51.3</v>
+        <v>2.2</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="22">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kyler Murray (ARI)</t>
+          <t>Justin Herbert (LAC)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>93.5</v>
+        <v>7.97</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="E22" t="n">
-        <v>65.7</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="G22" t="n">
-        <v>151.4</v>
+        <v>13</v>
       </c>
       <c r="H22" t="n">
-        <v>18.9</v>
+        <v>241.2</v>
       </c>
       <c r="I22" t="n">
-        <v>22</v>
+        <v>18.6</v>
       </c>
       <c r="J22" t="n">
-        <v>33.5</v>
+        <v>22.8</v>
       </c>
       <c r="K22" t="n">
-        <v>224.9</v>
+        <v>241.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="N22" t="n">
-        <v>30.5</v>
+        <v>2.2</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1545,47 +1545,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Derek Carr (NO)</t>
+          <t>Joe Burrow (CIN)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>93.40000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="D23" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>68.40000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>6.3</v>
       </c>
       <c r="G23" t="n">
-        <v>249.1</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>14.7</v>
+        <v>153.2</v>
       </c>
       <c r="I23" t="n">
-        <v>22.1</v>
+        <v>15.3</v>
       </c>
       <c r="J23" t="n">
-        <v>32.2</v>
+        <v>24.4</v>
       </c>
       <c r="K23" t="n">
-        <v>228.1</v>
+        <v>230.9</v>
       </c>
       <c r="L23" t="n">
         <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="N23" t="n">
         <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
@@ -1594,47 +1594,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Easton Stick (LAC)</t>
+          <t>Jake Browning (CIN)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>92.90000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>63.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>68.09999999999999</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>13.6</v>
+        <v>151.5</v>
       </c>
       <c r="I24" t="n">
-        <v>22.2</v>
+        <v>16.8</v>
       </c>
       <c r="J24" t="n">
-        <v>34.8</v>
+        <v>19</v>
       </c>
       <c r="K24" t="n">
-        <v>225.8</v>
+        <v>215.1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="N24" t="n">
-        <v>28.8</v>
+        <v>2.7</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1643,47 +1643,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jake Browning (CIN)</t>
+          <t>Geno Smith (SEA)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>87.2</v>
+        <v>7.88</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="E25" t="n">
-        <v>70.40000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="G25" t="n">
-        <v>151.5</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>16.8</v>
+        <v>236.4</v>
       </c>
       <c r="I25" t="n">
-        <v>19</v>
+        <v>15.8</v>
       </c>
       <c r="J25" t="n">
-        <v>27</v>
+        <v>21.5</v>
       </c>
       <c r="K25" t="n">
-        <v>215.1</v>
+        <v>241.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="N25" t="n">
-        <v>14.1</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
@@ -1692,47 +1692,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Russell Wilson (PIT)</t>
+          <t>Derek Carr (NO)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>85.09999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="D26" t="n">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="E26" t="n">
-        <v>66.40000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>7.1</v>
       </c>
       <c r="G26" t="n">
-        <v>264.9</v>
+        <v>17</v>
       </c>
       <c r="H26" t="n">
-        <v>17.7</v>
+        <v>249.1</v>
       </c>
       <c r="I26" t="n">
-        <v>19.8</v>
+        <v>14.7</v>
       </c>
       <c r="J26" t="n">
-        <v>29.8</v>
+        <v>22.1</v>
       </c>
       <c r="K26" t="n">
-        <v>204.7</v>
+        <v>228.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="N26" t="n">
-        <v>22.7</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="27">
@@ -1741,47 +1741,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gardner Minshew II (LV)</t>
+          <t>Easton Stick (LAC)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>84.5</v>
+        <v>7.52</v>
       </c>
       <c r="D27" t="n">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>62.2</v>
+        <v>63.8</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="G27" t="n">
-        <v>205.2</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>12.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>19.1</v>
+        <v>13.6</v>
       </c>
       <c r="J27" t="n">
-        <v>30.6</v>
+        <v>22.2</v>
       </c>
       <c r="K27" t="n">
-        <v>206.6</v>
+        <v>225.8</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="M27" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="N27" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="28">
@@ -1790,47 +1790,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aidan O'Connell (LV)</t>
+          <t>Deshaun Watson (CLE)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>83.09999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>62.1</v>
+        <v>61.4</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="G28" t="n">
-        <v>132.8</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>12.1</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>19.4</v>
+        <v>15.2</v>
       </c>
       <c r="J28" t="n">
-        <v>31.2</v>
+        <v>17.5</v>
       </c>
       <c r="K28" t="n">
-        <v>201.6</v>
+        <v>185.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="M28" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="29">
@@ -1839,47 +1839,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Justin Fields (PIT)</t>
+          <t>Anthony Richardson (IND)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>81.59999999999999</v>
+        <v>7.29</v>
       </c>
       <c r="D29" t="n">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>61.4</v>
+        <v>59.5</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>6.9</v>
       </c>
       <c r="G29" t="n">
-        <v>239.1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="I29" t="n">
         <v>18.4</v>
       </c>
-      <c r="I29" t="n">
-        <v>17.5</v>
-      </c>
       <c r="J29" t="n">
-        <v>28.5</v>
+        <v>12.5</v>
       </c>
       <c r="K29" t="n">
-        <v>197.1</v>
+        <v>144.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="M29" t="n">
-        <v>9.5</v>
+        <v>0.2</v>
       </c>
       <c r="N29" t="n">
-        <v>50.5</v>
+        <v>1.8</v>
       </c>
       <c r="O29" t="n">
-        <v>0.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="30">
@@ -1888,47 +1888,47 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Will Levis (TEN)</t>
+          <t>Jeff Driskel (WAS)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>81.09999999999999</v>
+        <v>7.11</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E30" t="n">
-        <v>58.4</v>
+        <v>50</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="G30" t="n">
-        <v>106.1</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>11.8</v>
+        <v>15.9</v>
       </c>
       <c r="I30" t="n">
-        <v>16.6</v>
+        <v>15.9</v>
       </c>
       <c r="J30" t="n">
-        <v>28.3</v>
+        <v>13</v>
       </c>
       <c r="K30" t="n">
-        <v>200.9</v>
+        <v>166</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>0.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>80.40000000000001</v>
+        <v>7.04</v>
       </c>
       <c r="D31" t="n">
         <v>-10</v>
@@ -1950,19 +1950,19 @@
         <v>62.8</v>
       </c>
       <c r="F31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G31" t="n">
         <v>13</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>210.5</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>16.2</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>20.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>32.1</v>
       </c>
       <c r="K31" t="n">
         <v>189.5</v>
@@ -1971,13 +1971,13 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O31" t="n">
         <v>5.9</v>
-      </c>
-      <c r="N31" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -1986,47 +1986,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mac Jones (JAC)</t>
+          <t>Gardner Minshew II (LV)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>80.2</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="E32" t="n">
-        <v>64.90000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="F32" t="n">
-        <v>11</v>
+        <v>6.7</v>
       </c>
       <c r="G32" t="n">
-        <v>118.3</v>
+        <v>16</v>
       </c>
       <c r="H32" t="n">
-        <v>10.8</v>
+        <v>205.2</v>
       </c>
       <c r="I32" t="n">
-        <v>20.4</v>
+        <v>12.8</v>
       </c>
       <c r="J32" t="n">
-        <v>31.4</v>
+        <v>19.1</v>
       </c>
       <c r="K32" t="n">
-        <v>192.7</v>
+        <v>206.6</v>
       </c>
       <c r="L32" t="n">
         <v>0.9</v>
       </c>
       <c r="M32" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="N32" t="n">
-        <v>8.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="33">
@@ -2035,47 +2035,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Zach Wilson (DEN)</t>
+          <t>Aidan O'Connell (LV)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>78.09999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="D33" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E33" t="n">
-        <v>60.1</v>
+        <v>62.1</v>
       </c>
       <c r="F33" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="G33" t="n">
-        <v>126.8</v>
+        <v>11</v>
       </c>
       <c r="H33" t="n">
-        <v>10.6</v>
+        <v>132.8</v>
       </c>
       <c r="I33" t="n">
-        <v>18.4</v>
+        <v>12.1</v>
       </c>
       <c r="J33" t="n">
-        <v>30.7</v>
+        <v>19.4</v>
       </c>
       <c r="K33" t="n">
-        <v>189.2</v>
+        <v>201.6</v>
       </c>
       <c r="L33" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="N33" t="n">
-        <v>17.6</v>
+        <v>2.2</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="34">
@@ -2084,47 +2084,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Deshaun Watson (CLE)</t>
+          <t>Taylor Heinicke (ATL)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>77.2</v>
+        <v>6.88</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>61.4</v>
+        <v>54.4</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="G34" t="n">
-        <v>90.90000000000001</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>15.2</v>
+        <v>70</v>
       </c>
       <c r="I34" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="J34" t="n">
-        <v>28.5</v>
+        <v>14.8</v>
       </c>
       <c r="K34" t="n">
-        <v>185.8</v>
+        <v>178</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="N34" t="n">
-        <v>23.7</v>
+        <v>1.6</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>76.7</v>
+        <v>6.76</v>
       </c>
       <c r="D35" t="n">
         <v>-12</v>
@@ -2146,19 +2146,19 @@
         <v>64.2</v>
       </c>
       <c r="F35" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G35" t="n">
         <v>15</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>189.1</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>12.6</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>16.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25.9</v>
       </c>
       <c r="K35" t="n">
         <v>189.1</v>
@@ -2167,13 +2167,13 @@
         <v>0.8</v>
       </c>
       <c r="M35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O35" t="n">
         <v>3.5</v>
-      </c>
-      <c r="N35" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="36">
@@ -2182,47 +2182,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bryce Young (CAR)</t>
+          <t>Will Levis (TEN)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>76.09999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="D36" t="n">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="E36" t="n">
-        <v>59.8</v>
+        <v>58.4</v>
       </c>
       <c r="F36" t="n">
-        <v>16</v>
+        <v>7.1</v>
       </c>
       <c r="G36" t="n">
-        <v>166.5</v>
+        <v>9</v>
       </c>
       <c r="H36" t="n">
-        <v>10.4</v>
+        <v>106.1</v>
       </c>
       <c r="I36" t="n">
-        <v>19.7</v>
+        <v>11.8</v>
       </c>
       <c r="J36" t="n">
-        <v>32.9</v>
+        <v>16.6</v>
       </c>
       <c r="K36" t="n">
-        <v>179.8</v>
+        <v>200.9</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="M36" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="N36" t="n">
-        <v>15.8</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="37">
@@ -2231,47 +2231,47 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Taylor Heinicke (ATL)</t>
+          <t>Mac Jones (JAC)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>73.2</v>
+        <v>6.5</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="E37" t="n">
-        <v>54.4</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="G37" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>118.3</v>
       </c>
       <c r="I37" t="n">
-        <v>14.8</v>
+        <v>10.8</v>
       </c>
       <c r="J37" t="n">
-        <v>27.2</v>
+        <v>20.4</v>
       </c>
       <c r="K37" t="n">
-        <v>178</v>
+        <v>192.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>24.8</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="38">
@@ -2280,47 +2280,47 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ryan Tannehill (FA)</t>
+          <t>Zach Wilson (DEN)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>72.8</v>
+        <v>6.44</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E38" t="n">
-        <v>64.8</v>
+        <v>60.1</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="G38" t="n">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>9.699999999999999</v>
+        <v>126.8</v>
       </c>
       <c r="I38" t="n">
-        <v>16.6</v>
+        <v>10.6</v>
       </c>
       <c r="J38" t="n">
-        <v>25.6</v>
+        <v>18.4</v>
       </c>
       <c r="K38" t="n">
-        <v>179.6</v>
+        <v>189.2</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="M38" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="N38" t="n">
-        <v>8.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="O38" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>72.2</v>
+        <v>6.39</v>
       </c>
       <c r="D39" t="n">
         <v>7</v>
@@ -2342,19 +2342,19 @@
         <v>65.7</v>
       </c>
       <c r="F39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" t="n">
         <v>5</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>59.3</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>11.9</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>18.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>28.6</v>
       </c>
       <c r="K39" t="n">
         <v>171.8</v>
@@ -2363,13 +2363,13 @@
         <v>0.6</v>
       </c>
       <c r="M39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
         <v>4.6</v>
-      </c>
-      <c r="N39" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="40">
@@ -2378,47 +2378,47 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kenny Pickett (PHI)</t>
+          <t>Jimmy Garoppolo (LAR)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>70.90000000000001</v>
+        <v>6.35</v>
       </c>
       <c r="D40" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>62</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>12</v>
+        <v>7.1</v>
       </c>
       <c r="G40" t="n">
-        <v>114.2</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
-        <v>9.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>16.8</v>
+        <v>10.4</v>
       </c>
       <c r="J40" t="n">
-        <v>27</v>
+        <v>15.7</v>
       </c>
       <c r="K40" t="n">
-        <v>172.5</v>
+        <v>172.1</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="N40" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="41">
@@ -2427,47 +2427,47 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mason Rudolph (TEN)</t>
+          <t>Bryce Young (CAR)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>70.2</v>
+        <v>6.28</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>-17</v>
       </c>
       <c r="E41" t="n">
-        <v>74.3</v>
+        <v>59.8</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="G41" t="n">
-        <v>39.6</v>
+        <v>16</v>
       </c>
       <c r="H41" t="n">
-        <v>9.9</v>
+        <v>166.5</v>
       </c>
       <c r="I41" t="n">
-        <v>13.8</v>
+        <v>10.4</v>
       </c>
       <c r="J41" t="n">
-        <v>18.5</v>
+        <v>19.7</v>
       </c>
       <c r="K41" t="n">
         <v>179.8</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M41" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="42">
@@ -2476,47 +2476,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jimmy Garoppolo (LAR)</t>
+          <t>Daniel Jones (NYG)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>70</v>
+        <v>6.08</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>65.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="G42" t="n">
-        <v>73.09999999999999</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>10.4</v>
+        <v>63</v>
       </c>
       <c r="I42" t="n">
-        <v>15.7</v>
+        <v>10.5</v>
       </c>
       <c r="J42" t="n">
-        <v>24.1</v>
+        <v>18</v>
       </c>
       <c r="K42" t="n">
-        <v>172.1</v>
+        <v>151.5</v>
       </c>
       <c r="L42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="n">
-        <v>2.9</v>
-      </c>
       <c r="N42" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="43">
@@ -2525,47 +2525,47 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jeff Driskel (WAS)</t>
+          <t>Ryan Tannehill (FA)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>69.2</v>
+        <v>6.06</v>
       </c>
       <c r="D43" t="n">
-        <v>18</v>
+        <v>-5</v>
       </c>
       <c r="E43" t="n">
-        <v>50</v>
+        <v>64.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G43" t="n">
-        <v>15.9</v>
+        <v>9</v>
       </c>
       <c r="H43" t="n">
-        <v>15.9</v>
+        <v>87</v>
       </c>
       <c r="I43" t="n">
-        <v>13</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>26</v>
+        <v>16.6</v>
       </c>
       <c r="K43" t="n">
-        <v>166</v>
+        <v>179.6</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="M43" t="n">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="N43" t="n">
-        <v>33</v>
+        <v>3.6</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="44">
@@ -2574,47 +2574,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jarrett Stidham (DEN)</t>
+          <t>Mason Rudolph (TEN)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>66.09999999999999</v>
+        <v>6.06</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>60.6</v>
+        <v>74.3</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>27.7</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
-        <v>9.199999999999999</v>
+        <v>39.6</v>
       </c>
       <c r="I44" t="n">
-        <v>13.3</v>
+        <v>9.9</v>
       </c>
       <c r="J44" t="n">
-        <v>22</v>
+        <v>13.8</v>
       </c>
       <c r="K44" t="n">
-        <v>165.3</v>
+        <v>179.8</v>
       </c>
       <c r="L44" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="45">
@@ -2623,47 +2623,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Daniel Jones (NYG)</t>
+          <t>Kenny Pickett (PHI)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>64.5</v>
+        <v>5.91</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E45" t="n">
-        <v>67.5</v>
+        <v>62</v>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G45" t="n">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>10.5</v>
+        <v>114.2</v>
       </c>
       <c r="I45" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="J45" t="n">
-        <v>26.7</v>
+        <v>16.8</v>
       </c>
       <c r="K45" t="n">
-        <v>151.5</v>
+        <v>172.5</v>
       </c>
       <c r="L45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M45" t="n">
         <v>0.3</v>
       </c>
-      <c r="M45" t="n">
-        <v>6.7</v>
-      </c>
       <c r="N45" t="n">
-        <v>34.3</v>
+        <v>1.9</v>
       </c>
       <c r="O45" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46">
@@ -2672,47 +2672,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Trevor Siemian (FA)</t>
+          <t>Jarrett Stidham (DEN)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>62.3</v>
+        <v>5.67</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>56.2</v>
+        <v>60.6</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G46" t="n">
-        <v>30.9</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>6.2</v>
+        <v>27.7</v>
       </c>
       <c r="I46" t="n">
-        <v>17.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>30.6</v>
+        <v>13.3</v>
       </c>
       <c r="K46" t="n">
-        <v>144.8</v>
+        <v>165.3</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="M46" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2721,47 +2721,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Case Keenum (HOU)</t>
+          <t>Carson Wentz (KC)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>61.4</v>
+        <v>5.54</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>64.2</v>
+        <v>70.8</v>
       </c>
       <c r="F47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G47" t="n">
         <v>2</v>
       </c>
-      <c r="G47" t="n">
-        <v>12.8</v>
-      </c>
       <c r="H47" t="n">
-        <v>6.4</v>
+        <v>27.1</v>
       </c>
       <c r="I47" t="n">
-        <v>17</v>
+        <v>13.6</v>
       </c>
       <c r="J47" t="n">
-        <v>26.5</v>
+        <v>8.5</v>
       </c>
       <c r="K47" t="n">
-        <v>145.5</v>
+        <v>81.5</v>
       </c>
       <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
         <v>0.5</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="N47" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="48">
@@ -2770,47 +2770,47 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Anthony Richardson (IND)</t>
+          <t>Tommy DeVito (NYG)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>60.6</v>
+        <v>5.11</v>
       </c>
       <c r="D48" t="n">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="E48" t="n">
-        <v>59.5</v>
+        <v>64</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="G48" t="n">
-        <v>73.59999999999999</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>18.4</v>
+        <v>96.5</v>
       </c>
       <c r="I48" t="n">
-        <v>12.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>21</v>
+        <v>11.4</v>
       </c>
       <c r="K48" t="n">
-        <v>144.2</v>
+        <v>110.1</v>
       </c>
       <c r="L48" t="n">
         <v>0.8</v>
       </c>
       <c r="M48" t="n">
-        <v>6.2</v>
+        <v>0.3</v>
       </c>
       <c r="N48" t="n">
-        <v>34</v>
+        <v>3.7</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="49">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>55.1</v>
+        <v>5.08</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         <v>63.2</v>
       </c>
       <c r="F49" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G49" t="n">
         <v>4</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>32.1</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>8</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>12</v>
-      </c>
-      <c r="J49" t="n">
-        <v>19</v>
       </c>
       <c r="K49" t="n">
         <v>135.8</v>
@@ -2853,13 +2853,13 @@
         <v>0.8</v>
       </c>
       <c r="M49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O49" t="n">
         <v>1.2</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>53.6</v>
+        <v>5.04</v>
       </c>
       <c r="D50" t="n">
         <v>-3</v>
@@ -2881,19 +2881,19 @@
         <v>62.6</v>
       </c>
       <c r="F50" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G50" t="n">
         <v>5</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>53.7</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>10.7</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>13.4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>21.4</v>
       </c>
       <c r="K50" t="n">
         <v>126.4</v>
@@ -2902,13 +2902,13 @@
         <v>0.8</v>
       </c>
       <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O50" t="n">
         <v>3.2</v>
-      </c>
-      <c r="N50" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="51">
@@ -2917,47 +2917,47 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bailey Zappe (NE)</t>
+          <t>Tyrod Taylor (NYJ)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>53</v>
+        <v>4.98</v>
       </c>
       <c r="D51" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E51" t="n">
-        <v>59.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G51" t="n">
-        <v>78.2</v>
+        <v>11</v>
       </c>
       <c r="H51" t="n">
-        <v>7.8</v>
+        <v>90.3</v>
       </c>
       <c r="I51" t="n">
-        <v>12.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>21.2</v>
+        <v>10.5</v>
       </c>
       <c r="K51" t="n">
-        <v>127.2</v>
+        <v>121.9</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="N51" t="n">
-        <v>8.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="O51" t="n">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="52">
@@ -2966,47 +2966,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tim Boyle (HOU)</t>
+          <t>Case Keenum (HOU)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>52.2</v>
+        <v>4.95</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>62.3</v>
+        <v>64.2</v>
       </c>
       <c r="F52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>17</v>
+      </c>
+      <c r="K52" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N52" t="n">
         <v>3</v>
       </c>
-      <c r="G52" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="K52" t="n">
-        <v>120</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.7</v>
-      </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3015,47 +3015,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Andy Dalton (CAR)</t>
+          <t>Trevor Siemian (FA)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>49.8</v>
+        <v>4.93</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="E53" t="n">
-        <v>58.6</v>
+        <v>56.2</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="G53" t="n">
-        <v>23.6</v>
+        <v>5</v>
       </c>
       <c r="H53" t="n">
-        <v>7.9</v>
+        <v>30.9</v>
       </c>
       <c r="I53" t="n">
-        <v>11.3</v>
+        <v>6.2</v>
       </c>
       <c r="J53" t="n">
-        <v>19.3</v>
+        <v>17.2</v>
       </c>
       <c r="K53" t="n">
-        <v>120.3</v>
+        <v>144.8</v>
       </c>
       <c r="L53" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="54">
@@ -3064,47 +3064,47 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tyrod Taylor (NYJ)</t>
+          <t>Bailey Zappe (NE)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>49.3</v>
+        <v>4.92</v>
       </c>
       <c r="D54" t="n">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="E54" t="n">
-        <v>64.40000000000001</v>
+        <v>59.9</v>
       </c>
       <c r="F54" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>90.3</v>
+        <v>10</v>
       </c>
       <c r="H54" t="n">
-        <v>8.199999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="I54" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="J54" t="n">
-        <v>16.4</v>
+        <v>12.7</v>
       </c>
       <c r="K54" t="n">
-        <v>121.9</v>
+        <v>127.2</v>
       </c>
       <c r="L54" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="M54" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="N54" t="n">
-        <v>17.9</v>
+        <v>2.5</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="55">
@@ -3113,47 +3113,47 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tommy DeVito (NYG)</t>
+          <t>Andy Dalton (CAR)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>46.5</v>
+        <v>4.78</v>
       </c>
       <c r="D55" t="n">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>64</v>
+        <v>58.6</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="G55" t="n">
-        <v>96.5</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>9.699999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="I55" t="n">
-        <v>11.4</v>
+        <v>7.9</v>
       </c>
       <c r="J55" t="n">
-        <v>17.8</v>
+        <v>11.3</v>
       </c>
       <c r="K55" t="n">
-        <v>110.1</v>
+        <v>120.3</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M55" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>19.5</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3162,47 +3162,47 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P.J. Walker (SEA)</t>
+          <t>Tim Boyle (HOU)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>45.4</v>
+        <v>4.5</v>
       </c>
       <c r="D56" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>48.6</v>
+        <v>62.3</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="G56" t="n">
-        <v>24.9</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>4.2</v>
+        <v>14.9</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="K56" t="n">
-        <v>112.3</v>
+        <v>120</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M56" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="N56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="57">
@@ -3211,47 +3211,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Blaine Gabbert (FA)</t>
+          <t>Jacoby Brissett (NE)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>38.7</v>
+        <v>4.17</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>51.4</v>
+        <v>78.3</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>8.9</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>4.5</v>
+        <v>22.9</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="J57" t="n">
-        <v>17.5</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>92.5</v>
+        <v>74.7</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3260,47 +3260,47 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Brett Rypien (CHI)</t>
+          <t>P.J. Walker (SEA)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>36.6</v>
+        <v>3.92</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>-3</v>
       </c>
       <c r="E58" t="n">
-        <v>47.4</v>
+        <v>48.6</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="G58" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>2.9</v>
+        <v>24.9</v>
       </c>
       <c r="I58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J58" t="n">
         <v>9</v>
       </c>
-      <c r="J58" t="n">
-        <v>19</v>
-      </c>
       <c r="K58" t="n">
-        <v>86</v>
+        <v>112.3</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M58" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="N58" t="n">
-        <v>9.5</v>
+        <v>1.8</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="59">
@@ -3309,47 +3309,47 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Carson Wentz (KC)</t>
+          <t>Blaine Gabbert (FA)</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>35.5</v>
+        <v>3.86</v>
       </c>
       <c r="D59" t="n">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>70.8</v>
+        <v>51.4</v>
       </c>
       <c r="F59" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G59" t="n">
         <v>2</v>
       </c>
-      <c r="G59" t="n">
-        <v>27.1</v>
-      </c>
       <c r="H59" t="n">
-        <v>13.6</v>
+        <v>8.9</v>
       </c>
       <c r="I59" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="J59" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K59" t="n">
-        <v>81.5</v>
+        <v>92.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="N59" t="n">
-        <v>28</v>
+        <v>0.5</v>
       </c>
       <c r="O59" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="60">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>31.8</v>
+        <v>3.55</v>
       </c>
       <c r="D60" t="n">
         <v>8</v>
@@ -3371,19 +3371,19 @@
         <v>54.8</v>
       </c>
       <c r="F60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G60" t="n">
         <v>3</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>7</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>2.3</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>7.7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>14</v>
       </c>
       <c r="K60" t="n">
         <v>77</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O60" t="n">
         <v>1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3407,47 +3407,47 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jacoby Brissett (NE)</t>
+          <t>Brett Rypien (CHI)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30.2</v>
+        <v>3.34</v>
       </c>
       <c r="D61" t="n">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>78.3</v>
+        <v>47.4</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G61" t="n">
-        <v>22.9</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="J61" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="K61" t="n">
-        <v>74.7</v>
+        <v>86</v>
       </c>
       <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="n">
-        <v>6.3</v>
-      </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="62">
@@ -3456,47 +3456,47 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dorian Thompson-Robinson (CLE)</t>
+          <t>Marcus Mariota (WAS)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>24.8</v>
+        <v>3.25</v>
       </c>
       <c r="D62" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>53.6</v>
+        <v>65.2</v>
       </c>
       <c r="F62" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="G62" t="n">
-        <v>26.1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>3.3</v>
+        <v>12.7</v>
       </c>
       <c r="I62" t="n">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K62" t="n">
-        <v>55</v>
+        <v>54.7</v>
       </c>
       <c r="L62" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M62" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="N62" t="n">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="63">
@@ -3505,47 +3505,47 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marcus Mariota (WAS)</t>
+          <t>Tyler Huntley (CLE)</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>22.4</v>
+        <v>3.12</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="E63" t="n">
-        <v>65.2</v>
+        <v>56.8</v>
       </c>
       <c r="F63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O63" t="n">
         <v>3</v>
-      </c>
-      <c r="G63" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K63" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N63" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3554,44 +3554,44 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jaren Hall (MIN)</t>
+          <t>AJ McCarron (FA)</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>21.6</v>
+        <v>3.11</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I64" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="J64" t="n">
-        <v>6.7</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>56</v>
+        <v>9.5</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3603,47 +3603,47 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C.J. Beathard (JAC)</t>
+          <t>Dorian Thompson-Robinson (CLE)</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>18.1</v>
+        <v>2.99</v>
       </c>
       <c r="D65" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="E65" t="n">
-        <v>75.5</v>
+        <v>53.6</v>
       </c>
       <c r="F65" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G65" t="n">
         <v>8</v>
       </c>
-      <c r="G65" t="n">
-        <v>21.5</v>
-      </c>
       <c r="H65" t="n">
-        <v>2.7</v>
+        <v>26.1</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="J65" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="K65" t="n">
-        <v>43.6</v>
+        <v>55</v>
       </c>
       <c r="L65" t="n">
         <v>0.1</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N65" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="66">
@@ -3652,47 +3652,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tyler Huntley (CLE)</t>
+          <t>C.J. Beathard (JAC)</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17.8</v>
+        <v>2.79</v>
       </c>
       <c r="D66" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="E66" t="n">
-        <v>56.8</v>
+        <v>75.5</v>
       </c>
       <c r="F66" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J66" t="n">
         <v>5</v>
       </c>
-      <c r="G66" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7.4</v>
-      </c>
       <c r="K66" t="n">
-        <v>40.6</v>
+        <v>43.6</v>
       </c>
       <c r="L66" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3701,47 +3701,47 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jameis Winston (CLE)</t>
+          <t>Jaren Hall (MIN)</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15.8</v>
+        <v>2.59</v>
       </c>
       <c r="D67" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>53.2</v>
+        <v>65</v>
       </c>
       <c r="F67" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="G67" t="n">
-        <v>14.9</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
       <c r="K67" t="n">
-        <v>37.7</v>
+        <v>56</v>
       </c>
       <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
         <v>0.3</v>
       </c>
-      <c r="M67" t="n">
-        <v>0.7</v>
-      </c>
       <c r="N67" t="n">
-        <v>-0.9</v>
+        <v>1.3</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3750,47 +3750,47 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Davis Mills (HOU)</t>
+          <t>Sam Darnold (MIN)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12.8</v>
+        <v>2.4</v>
       </c>
       <c r="D68" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="E68" t="n">
-        <v>46.2</v>
+        <v>60.9</v>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="G68" t="n">
-        <v>17.9</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>24.3</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="J68" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="K68" t="n">
-        <v>28.8</v>
+        <v>29.7</v>
       </c>
       <c r="L68" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N68" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="69">
@@ -3799,47 +3799,47 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sam Darnold (MIN)</t>
+          <t>Clayton Tune (ARI)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>12.3</v>
+        <v>2.4</v>
       </c>
       <c r="D69" t="n">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="E69" t="n">
-        <v>60.9</v>
+        <v>57.1</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>24.3</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="I69" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="J69" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="K69" t="n">
-        <v>29.7</v>
+        <v>7.8</v>
       </c>
       <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
         <v>0.2</v>
       </c>
-      <c r="M69" t="n">
-        <v>2.1</v>
-      </c>
       <c r="N69" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="O69" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3848,47 +3848,47 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Logan Woodside (CIN)</t>
+          <t>Davis Mills (HOU)</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10.9</v>
+        <v>2.39</v>
       </c>
       <c r="D70" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G70" t="n">
         <v>6</v>
       </c>
-      <c r="E70" t="n">
-        <v>75</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.7</v>
-      </c>
       <c r="H70" t="n">
-        <v>0.7</v>
+        <v>17.9</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>27</v>
+        <v>28.8</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="71">
@@ -3897,47 +3897,47 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Malik Willis (TEN)</t>
+          <t>Jameis Winston (CLE)</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9.1</v>
+        <v>2.39</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E71" t="n">
-        <v>80</v>
+        <v>53.2</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>14.9</v>
       </c>
       <c r="I71" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="K71" t="n">
-        <v>24.7</v>
+        <v>37.7</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M71" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="N71" t="n">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="72">
@@ -3946,47 +3946,47 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cooper Rush (DAL)</t>
+          <t>Sean Clifford (GB)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7.5</v>
+        <v>2.31</v>
       </c>
       <c r="D72" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F72" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J72" t="n">
         <v>0.5</v>
       </c>
-      <c r="I72" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3</v>
-      </c>
       <c r="K72" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
         <v>1.5</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3995,47 +3995,47 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sean Clifford (GB)</t>
+          <t>Malik Willis (TEN)</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6.5</v>
+        <v>2.26</v>
       </c>
       <c r="D73" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>80</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="E73" t="n">
-        <v>100</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="J73" t="n">
         <v>1.3</v>
       </c>
-      <c r="H73" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5</v>
-      </c>
       <c r="K73" t="n">
-        <v>18.5</v>
+        <v>24.7</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="74">
@@ -4044,47 +4044,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mike White (MIA)</t>
+          <t>Logan Woodside (CIN)</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.7</v>
+        <v>2.18</v>
       </c>
       <c r="D74" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>83.3</v>
+        <v>75</v>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I74" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J74" t="n">
+        <v>3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>27</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
-      <c r="K74" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.3</v>
-      </c>
       <c r="N74" t="n">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -4093,47 +4093,47 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AJ McCarron (FA)</t>
+          <t>Cooper Rush (DAL)</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E75" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K75" t="n">
-        <v>9.5</v>
+        <v>18</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="76">
@@ -4142,47 +4142,47 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Clayton Tune (ARI)</t>
+          <t>Mike White (MIA)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="D76" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E76" t="n">
-        <v>57.1</v>
+        <v>83.3</v>
       </c>
       <c r="F76" t="n">
-        <v>8</v>
+        <v>12.3</v>
       </c>
       <c r="G76" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="I76" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J76" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="K76" t="n">
-        <v>7.8</v>
+        <v>12.3</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N76" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77">
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -4204,19 +4204,19 @@
         <v>54.5</v>
       </c>
       <c r="F77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G77" t="n">
         <v>16</v>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7</v>
       </c>
       <c r="K77" t="n">
         <v>5.2</v>
@@ -4225,13 +4225,13 @@
         <v>0.1</v>
       </c>
       <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O77" t="n">
         <v>5.1</v>
-      </c>
-      <c r="N77" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="78">
@@ -4240,11 +4240,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Aaron Rodgers (NYJ)</t>
+          <t>Nathan Rourke (NYG)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.3</v>
+        <v>1.38</v>
       </c>
       <c r="D78" t="n">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -4264,24 +4264,12 @@
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4289,48 +4277,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kyle Trask (TB)</t>
+          <t>Jordan Travis (NYJ)</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1</v>
+        <v>1.38</v>
       </c>
       <c r="D79" t="n">
-        <v>52</v>
+        <v>-2</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4338,11 +4314,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Trey Lance (DAL)</t>
+          <t>Jason Bean (IND)</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="D80" t="n">
         <v>-3</v>
@@ -4359,7 +4335,9 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -4373,11 +4351,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ian Book (KC)</t>
+          <t>Gavin Hardison (MIA)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="D81" t="n">
         <v>-4</v>
@@ -4394,7 +4372,9 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -4408,11 +4388,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sam Ehlinger (IND)</t>
+          <t>Austin Reed (CHI)</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="D82" t="n">
         <v>-5</v>
@@ -4421,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -4432,24 +4412,12 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4457,11 +4425,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Michael Pratt (GB)</t>
+          <t>Michael Penix Jr. (ATL)</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="D83" t="n">
         <v>-6</v>
@@ -4478,7 +4446,9 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
@@ -4492,11 +4462,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tanner Mordecai (SF)</t>
+          <t>J.J. McCarthy (MIN)</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="D84" t="n">
         <v>-7</v>
@@ -4513,7 +4483,9 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
@@ -4527,11 +4499,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nathan Rourke (NYG)</t>
+          <t>Brandon Allen (SF)</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="D85" t="n">
         <v>-8</v>
@@ -4548,7 +4520,9 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -4562,11 +4536,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jayden Daniels (WAS)</t>
+          <t>Aaron Rodgers (NYJ)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="D86" t="n">
         <v>-9</v>
@@ -4578,18 +4552,32 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4597,11 +4585,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Bo Nix (DEN)</t>
+          <t>Jayden Daniels (WAS)</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D87" t="n">
         <v>-10</v>
@@ -4618,7 +4606,9 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -4632,11 +4622,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tanner McKee (PHI)</t>
+          <t>Bo Nix (DEN)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D88" t="n">
         <v>-11</v>
@@ -4653,7 +4643,9 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
@@ -4667,11 +4659,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Chris Oladokun (KC)</t>
+          <t>Trey Lance (DAL)</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D89" t="n">
         <v>-12</v>
@@ -4680,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4691,24 +4683,12 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4716,11 +4696,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Devin Leary (BAL)</t>
+          <t>Ian Book (KC)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D90" t="n">
         <v>-13</v>
@@ -4737,7 +4717,9 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -4751,11 +4733,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jake Haener (NO)</t>
+          <t>Sam Ehlinger (IND)</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D91" t="n">
         <v>-14</v>
@@ -4767,18 +4749,32 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4786,11 +4782,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rocky Lombardi (CIN)</t>
+          <t>Michael Pratt (GB)</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D92" t="n">
         <v>-15</v>
@@ -4807,7 +4803,9 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -4821,11 +4819,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>John Rhys Plumlee (PIT)</t>
+          <t>Tanner Mordecai (SF)</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D93" t="n">
         <v>-16</v>
@@ -4842,7 +4840,9 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
@@ -4856,11 +4856,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Casey Bauman (LAC)</t>
+          <t>Dresser Winn (LAR)</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D94" t="n">
         <v>-17</v>
@@ -4877,7 +4877,9 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -4891,11 +4893,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Zack Annexstad (TB)</t>
+          <t>Tanner McKee (PHI)</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D95" t="n">
         <v>-18</v>
@@ -4912,7 +4914,9 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
@@ -4926,11 +4930,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>John Paddock (ATL)</t>
+          <t>Chris Oladokun (KC)</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D96" t="n">
         <v>-19</v>
@@ -4942,18 +4946,32 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4961,11 +4979,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jack Plummer (CAR)</t>
+          <t>Devin Leary (BAL)</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D97" t="n">
         <v>-20</v>
@@ -4982,7 +5000,9 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
@@ -4996,11 +5016,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Andrew Peasley (NYJ)</t>
+          <t>Jake Haener (NO)</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D98" t="n">
         <v>-21</v>
@@ -5017,7 +5037,9 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -5031,11 +5053,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jason Bean (IND)</t>
+          <t>Rocky Lombardi (CIN)</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D99" t="n">
         <v>-22</v>
@@ -5052,7 +5074,9 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -5066,11 +5090,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Joe Milton III (NE)</t>
+          <t>John Rhys Plumlee (PIT)</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D100" t="n">
         <v>-23</v>
@@ -5087,7 +5111,9 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
@@ -5101,11 +5127,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Carter Bradley (LV)</t>
+          <t>Casey Bauman (LAC)</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D101" t="n">
         <v>-24</v>
@@ -5122,7 +5148,9 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
@@ -5136,11 +5164,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Jordan Travis (NYJ)</t>
+          <t>Zack Annexstad (TB)</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D102" t="n">
         <v>-25</v>
@@ -5157,7 +5185,9 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
@@ -5171,11 +5201,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dresser Winn (LAR)</t>
+          <t>John Paddock (ATL)</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D103" t="n">
         <v>-26</v>
@@ -5192,7 +5222,9 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
@@ -5206,11 +5238,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Austin Reed (CHI)</t>
+          <t>Jack Plummer (CAR)</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D104" t="n">
         <v>-27</v>
@@ -5227,7 +5259,9 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
@@ -5241,11 +5275,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Gavin Hardison (MIA)</t>
+          <t>Andrew Peasley (NYJ)</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D105" t="n">
         <v>-28</v>
@@ -5262,7 +5296,9 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
@@ -5276,11 +5312,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Spencer Rattler (NO)</t>
+          <t>Joe Milton III (NE)</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D106" t="n">
         <v>-29</v>
@@ -5297,7 +5333,9 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -5311,11 +5349,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Caleb Williams (CHI)</t>
+          <t>Carter Bradley (LV)</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D107" t="n">
         <v>-30</v>
@@ -5332,7 +5370,9 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -5346,11 +5386,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Kedon Slovis (IND)</t>
+          <t>Spencer Rattler (NO)</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D108" t="n">
         <v>-31</v>
@@ -5367,7 +5407,9 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
@@ -5381,11 +5423,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Malik Cunningham (BAL)</t>
+          <t>Caleb Williams (CHI)</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D109" t="n">
         <v>-32</v>
@@ -5394,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -5405,24 +5447,12 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5430,11 +5460,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Max Duggan (LAC)</t>
+          <t>Drake Maye (NE)</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D110" t="n">
         <v>-33</v>
@@ -5443,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -5454,24 +5484,12 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5479,11 +5497,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Drake Maye (NE)</t>
+          <t>Kedon Slovis (IND)</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D111" t="n">
         <v>-34</v>
@@ -5500,7 +5518,9 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
@@ -5514,11 +5534,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>J.J. McCarthy (MIN)</t>
+          <t>Malik Cunningham (BAL)</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D112" t="n">
         <v>-35</v>
@@ -5530,18 +5550,32 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5549,11 +5583,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Hendon Hooker (DET)</t>
+          <t>Emory Jones (BAL)</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D113" t="n">
         <v>-36</v>
@@ -5570,7 +5604,9 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
@@ -5584,11 +5620,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sam Hartman (WAS)</t>
+          <t>Hendon Hooker (DET)</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D114" t="n">
         <v>-37</v>
@@ -5605,7 +5641,9 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
@@ -5619,11 +5657,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Skylar Thompson (MIA)</t>
+          <t>Sam Hartman (WAS)</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D115" t="n">
         <v>-38</v>
@@ -5632,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -5643,24 +5681,12 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5668,11 +5694,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Stetson Bennett (LAR)</t>
+          <t>Skylar Thompson (MIA)</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D116" t="n">
         <v>-39</v>
@@ -5684,18 +5710,32 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5703,11 +5743,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Anthony Brown Jr. (LV)</t>
+          <t>Stetson Bennett (LAR)</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D117" t="n">
         <v>-40</v>
@@ -5724,7 +5764,9 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
@@ -5738,11 +5780,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Emory Jones (BAL)</t>
+          <t>Anthony Brown Jr. (LV)</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D118" t="n">
         <v>-41</v>
@@ -5759,7 +5801,9 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
@@ -5773,11 +5817,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Michael Penix Jr. (ATL)</t>
+          <t>Ben Chappell (WAS)</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D119" t="n">
         <v>-42</v>
@@ -5794,7 +5838,9 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -5812,7 +5858,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D120" t="n">
         <v>-43</v>
@@ -5829,7 +5875,9 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
@@ -5843,11 +5891,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ben Chappell (WAS)</t>
+          <t>Erik Ainge (NYJ)</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D121" t="n">
         <v>-44</v>
@@ -5864,7 +5912,9 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
@@ -5882,7 +5932,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D122" t="n">
         <v>-45</v>
@@ -5899,7 +5949,9 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -5913,11 +5965,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Erik Ainge (NYJ)</t>
+          <t>Josh Johnson (BAL)</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D123" t="n">
         <v>-46</v>
@@ -5934,7 +5986,9 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
@@ -5952,7 +6006,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D124" t="n">
         <v>-47</v>
@@ -5961,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
         <v>2</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -6001,7 +6055,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D125" t="n">
         <v>-48</v>
@@ -6018,7 +6072,9 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
@@ -6036,7 +6092,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D126" t="n">
         <v>-49</v>
@@ -6053,7 +6109,9 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
@@ -6067,11 +6125,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Josh Johnson (BAL)</t>
+          <t>Will Grier (PHI)</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D127" t="n">
         <v>-50</v>
@@ -6088,7 +6146,9 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
@@ -6102,11 +6162,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Will Grier (PHI)</t>
+          <t>Brett Smith (TB)</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D128" t="n">
         <v>-51</v>
@@ -6123,7 +6183,9 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
@@ -6137,11 +6199,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Brett Smith (TB)</t>
+          <t>Nate Sudfeld (DET)</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="D129" t="n">
         <v>-52</v>
@@ -6158,7 +6220,9 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
@@ -6172,14 +6236,14 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Brandon Allen (SF)</t>
+          <t>Kyle Trask (TB)</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="D130" t="n">
-        <v>-53</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -6188,18 +6252,32 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6207,14 +6285,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nate Sudfeld (DET)</t>
+          <t>Kyle Allen (PIT)</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="D131" t="n">
-        <v>-54</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -6223,18 +6301,32 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
+        <v>-1.3</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6246,7 +6338,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -6255,16 +6347,16 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
         <v>1</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-0.2</v>
       </c>
       <c r="H132" t="n">
         <v>-0.2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -6276,13 +6368,13 @@
         <v>0</v>
       </c>
       <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
         <v>2</v>
-      </c>
-      <c r="N132" t="n">
-        <v>-2</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -6291,29 +6383,29 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Nathan Peterman (NO)</t>
+          <t>Matt Barkley (FA)</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-0</v>
+        <v>0.99</v>
       </c>
       <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
         <v>1</v>
       </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-0.4</v>
-      </c>
       <c r="H133" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -6325,13 +6417,13 @@
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -6340,47 +6432,47 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kyle Allen (PIT)</t>
+          <t>Nathan Peterman (NO)</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0</v>
+        <v>0.99</v>
       </c>
       <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O134" t="n">
         <v>1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>7</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="H134" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0</v>
-      </c>
-      <c r="M134" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N134" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -6389,26 +6481,26 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Matt Barkley (FA)</t>
+          <t>Max Duggan (LAC)</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>-2</v>
+        <v>-58</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
         <v>1</v>
       </c>
-      <c r="G135" t="n">
-        <v>-0.3</v>
-      </c>
       <c r="H135" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -6423,10 +6515,10 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
